--- a/biology/Botanique/Poraqueiba/Poraqueiba.xlsx
+++ b/biology/Botanique/Poraqueiba/Poraqueiba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poraqueiba est un genre de plantes de la famille des Metteniusaceae (anciennement des Icacinaceae). L'espèce type est Poraqueiba guianensis.
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PORAQUEIBA. (Tabula 47.)
 CAL. PERIANTHIUM monophyllum, minimum, quinquedentatum.
 COR. monopetala, quinquepartita ; lobis oblongis, ovatis, acucis, ſubtùs convexis, ſuprà concavis; cavitate per mediam tranſverſam membranam in duas partes diſtinctâ, ſuperior longitudinaliter ſecta in duas cavitatesi inferior in tres, duæ latérales, una in medio.
@@ -549,13 +563,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (04 mars 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (04 mars 2022) :
 Poraqueiba guianensis Aubl.
 Poraqueiba paraensis Ducke
 Poraqueiba sericea Tul.
-Selon Tropicos                                           (04 mars 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (04 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
 Poraqueiba acuminata Miers, 1859
 Poraqueiba cubensis C. Wright ex Griseb., 1866
 Poraqueiba guianensis Aubl., 1775
